--- a/data_information.xlsx
+++ b/data_information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrich\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surface\OneDrive\DataScience_Homework\DataScience_Foundation\DS_CW3\data_diggers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="153">
   <si>
     <t>Filename</t>
   </si>
@@ -409,6 +409,99 @@
   <si>
     <t>NUMBER</t>
   </si>
+  <si>
+    <t>Median house price Uk cities.xls</t>
+  </si>
+  <si>
+    <t>The median price for a house/fat of UK cities</t>
+  </si>
+  <si>
+    <t>114 census</t>
+  </si>
+  <si>
+    <t>Q4 1995 to year ending Q2 2015</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/housing/datasets/townsandcitiesanalysis</t>
+  </si>
+  <si>
+    <t>Town/CIty</t>
+  </si>
+  <si>
+    <t>Region/Country</t>
+  </si>
+  <si>
+    <t>Median from Q4 1995</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>to Q2 2015, 18 colums</t>
+  </si>
+  <si>
+    <t>for each Q</t>
+  </si>
+  <si>
+    <t>The median price for a house in UK cities, columns vary depending on extra factors for the house/fat.</t>
+  </si>
+  <si>
+    <t>total_jobs.csv</t>
+  </si>
+  <si>
+    <t>Uk cities, total number of jobs available</t>
+  </si>
+  <si>
+    <t>http://www.centreforcities.org/data-tool/dataset/european-cities#graph=bar&amp;city=aberdeen&amp;city=aldershot&amp;city=barnsley&amp;city=basildon&amp;city=belfast&amp;city=birkenhead&amp;city=birmingham&amp;city=blackburn&amp;city=blackpool&amp;city=bournemouth&amp;city=bradford&amp;city=brighton&amp;city=bristol&amp;city=burnley&amp;city=cambridge&amp;city=cardiff&amp;city=chatham&amp;city=coventry&amp;city=crawley&amp;city=derby&amp;city=doncaster&amp;city=dundee&amp;city=edinburgh&amp;city=exeter&amp;city=glasgow&amp;city=gloucester&amp;city=huddersfield&amp;city=hull&amp;city=ipswich&amp;city=leeds&amp;city=leicester&amp;city=liverpool&amp;city=london&amp;city=luton&amp;city=manchester&amp;city=mansfield&amp;city=middlesbrough&amp;city=milton-keynes&amp;city=newcastle&amp;city=newport&amp;city=northampton&amp;city=norwich&amp;city=nottingham&amp;city=oxford&amp;city=peterborough&amp;city=plymouth&amp;city=portsmouth&amp;city=preston&amp;city=reading&amp;city=sheffield&amp;city=slough&amp;city=southampton&amp;city=southend&amp;city=stoke&amp;city=sunderland&amp;city=swansea&amp;city=swindon&amp;city=telford&amp;city=wakefield&amp;city=warrington&amp;city=wigan&amp;city=worthing&amp;city=york&amp;sortOrder=high&amp;indicator=total-jobs\\single\\2011&amp;orient=horz</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>COuntry</t>
+  </si>
+  <si>
+    <t>Total jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uk cities, total number of jobs currently on the market place taken or not. </t>
+  </si>
+  <si>
+    <t>population.csv</t>
+  </si>
+  <si>
+    <t>Uk cities and the population count</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Number of people living in Uk cities.</t>
+  </si>
+  <si>
+    <t>gva_per_worker.csv</t>
+  </si>
+  <si>
+    <t>Gross Value Added per an employed person UK cities</t>
+  </si>
+  <si>
+    <t>GVA</t>
+  </si>
+  <si>
+    <t>Gross Value Added per an employed person 63 UK cities, meaning how much of goods and services a worker produces</t>
+  </si>
+  <si>
+    <t>unemployment_rate.csv</t>
+  </si>
+  <si>
+    <t>Unemployment Rate Uk cities</t>
+  </si>
+  <si>
+    <t>Un.rate</t>
+  </si>
+  <si>
+    <t>Unemployment rate in 63 Uk cities in %</t>
+  </si>
 </sst>
 </file>
 
@@ -418,7 +511,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -480,8 +573,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +598,14 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -899,13 +1003,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1027,6 +1229,82 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1081,9 +1359,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="解释性文本" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1167,7 +1445,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1463,9 +1741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK132"/>
+  <dimension ref="A1:AMK247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P200" sqref="P200"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1476,76 +1756,76 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="5">
         <v>451</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="5">
         <v>7</v>
       </c>
@@ -1560,33 +1840,33 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1738,153 +2018,153 @@
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
     </row>
     <row r="16" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
     </row>
     <row r="19" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
     </row>
     <row r="20" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
     </row>
     <row r="21" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
@@ -1935,76 +2215,76 @@
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
       <c r="I28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="57">
+      <c r="J28" s="87">
         <v>2016</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="5">
         <v>380</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="5">
         <v>10</v>
       </c>
@@ -2019,33 +2299,33 @@
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="58"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2266,158 +2546,158 @@
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
     </row>
     <row r="43" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
       <c r="I52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="57" t="s">
+      <c r="J52" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="55"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="5">
         <v>161</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="58" t="s">
+      <c r="E53" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="88"/>
       <c r="G53" s="5">
         <v>5</v>
       </c>
@@ -2432,33 +2712,33 @@
       <c r="A54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="89"/>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="58"/>
+      <c r="E55" s="88"/>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -2574,85 +2854,85 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="85"/>
+      <c r="M61" s="85"/>
     </row>
     <row r="62" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
       <c r="J62" s="24"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
       <c r="M62" s="26"/>
     </row>
     <row r="63" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
       <c r="J63" s="27"/>
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
       <c r="J64" s="27"/>
       <c r="K64" s="28"/>
       <c r="L64" s="28"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
       <c r="J65" s="27"/>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
@@ -2695,76 +2975,76 @@
       <c r="A70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="87"/>
+      <c r="K70" s="87"/>
+      <c r="L70" s="87"/>
+      <c r="M70" s="87"/>
     </row>
     <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="87"/>
+      <c r="M71" s="87"/>
     </row>
     <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87"/>
       <c r="I72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J72" s="57">
+      <c r="J72" s="87">
         <v>2017</v>
       </c>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
+      <c r="K72" s="87"/>
+      <c r="L72" s="87"/>
+      <c r="M72" s="87"/>
     </row>
     <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="55"/>
+      <c r="B73" s="85"/>
       <c r="C73" s="5">
         <v>24303</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="58" t="s">
+      <c r="E73" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="58"/>
+      <c r="F73" s="88"/>
       <c r="G73" s="5">
         <v>8</v>
       </c>
@@ -2779,31 +3059,31 @@
       <c r="A74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="83"/>
+      <c r="K74" s="83"/>
+      <c r="L74" s="83"/>
+      <c r="M74" s="83"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A75" s="59" t="s">
+      <c r="A75" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="59"/>
+      <c r="B75" s="89"/>
       <c r="C75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="58"/>
+      <c r="E75" s="88"/>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -2955,51 +3235,51 @@
       <c r="M82" s="6"/>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="85"/>
+      <c r="M83" s="85"/>
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="56"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
+      <c r="A84" s="86"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="86"/>
+      <c r="K84" s="86"/>
+      <c r="L84" s="86"/>
+      <c r="M84" s="86"/>
     </row>
     <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="56"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
+      <c r="A85" s="86"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="86"/>
+      <c r="K85" s="86"/>
+      <c r="L85" s="86"/>
+      <c r="M85" s="86"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="23"/>
@@ -3036,76 +3316,76 @@
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="57" t="s">
+      <c r="B89" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="57"/>
-      <c r="M89" s="57"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="87"/>
+      <c r="K89" s="87"/>
+      <c r="L89" s="87"/>
+      <c r="M89" s="87"/>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="57"/>
-      <c r="K90" s="57"/>
-      <c r="L90" s="57"/>
-      <c r="M90" s="57"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="87"/>
+      <c r="G90" s="87"/>
+      <c r="H90" s="87"/>
+      <c r="I90" s="87"/>
+      <c r="J90" s="87"/>
+      <c r="K90" s="87"/>
+      <c r="L90" s="87"/>
+      <c r="M90" s="87"/>
     </row>
     <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="87"/>
+      <c r="G91" s="87"/>
+      <c r="H91" s="87"/>
       <c r="I91" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J91" s="57">
+      <c r="J91" s="87">
         <v>2017</v>
       </c>
-      <c r="K91" s="57"/>
-      <c r="L91" s="57"/>
-      <c r="M91" s="57"/>
+      <c r="K91" s="87"/>
+      <c r="L91" s="87"/>
+      <c r="M91" s="87"/>
     </row>
     <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="55" t="s">
+      <c r="A92" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="55"/>
+      <c r="B92" s="85"/>
       <c r="C92" s="5">
         <v>51567</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="E92" s="58" t="s">
+      <c r="E92" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="58"/>
+      <c r="F92" s="88"/>
       <c r="G92" s="5">
         <v>6</v>
       </c>
@@ -3120,33 +3400,33 @@
       <c r="A93" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="53"/>
-      <c r="M93" s="53"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="83"/>
+      <c r="L93" s="83"/>
+      <c r="M93" s="83"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94" s="54" t="s">
+      <c r="A94" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="84"/>
       <c r="C94" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="54"/>
+      <c r="E94" s="84"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -3277,126 +3557,126 @@
       <c r="M100" s="6"/>
     </row>
     <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="55" t="s">
+      <c r="A101" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="55"/>
-      <c r="L101" s="55"/>
-      <c r="M101" s="55"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="85"/>
+      <c r="I101" s="85"/>
+      <c r="J101" s="85"/>
+      <c r="K101" s="85"/>
+      <c r="L101" s="85"/>
+      <c r="M101" s="85"/>
     </row>
     <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="56"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="56"/>
-      <c r="K102" s="56"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="56"/>
+      <c r="A102" s="86"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="86"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="86"/>
+      <c r="J102" s="86"/>
+      <c r="K102" s="86"/>
+      <c r="L102" s="86"/>
+      <c r="M102" s="86"/>
     </row>
     <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="56"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="56"/>
-      <c r="K103" s="56"/>
-      <c r="L103" s="56"/>
-      <c r="M103" s="56"/>
+      <c r="A103" s="86"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="86"/>
+      <c r="J103" s="86"/>
+      <c r="K103" s="86"/>
+      <c r="L103" s="86"/>
+      <c r="M103" s="86"/>
     </row>
     <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="57" t="s">
+      <c r="B104" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="57"/>
-      <c r="M104" s="57"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="87"/>
+      <c r="F104" s="87"/>
+      <c r="G104" s="87"/>
+      <c r="H104" s="87"/>
+      <c r="I104" s="87"/>
+      <c r="J104" s="87"/>
+      <c r="K104" s="87"/>
+      <c r="L104" s="87"/>
+      <c r="M104" s="87"/>
     </row>
     <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="57" t="s">
+      <c r="B105" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="57"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="57"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="87"/>
+      <c r="H105" s="87"/>
+      <c r="I105" s="87"/>
+      <c r="J105" s="87"/>
+      <c r="K105" s="87"/>
+      <c r="L105" s="87"/>
+      <c r="M105" s="87"/>
     </row>
     <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B106" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="87"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="87"/>
+      <c r="G106" s="87"/>
+      <c r="H106" s="87"/>
       <c r="I106" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J106" s="57">
+      <c r="J106" s="87">
         <v>2015</v>
       </c>
-      <c r="K106" s="57"/>
-      <c r="L106" s="57"/>
-      <c r="M106" s="57"/>
+      <c r="K106" s="87"/>
+      <c r="L106" s="87"/>
+      <c r="M106" s="87"/>
     </row>
     <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="55" t="s">
+      <c r="A107" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="55"/>
+      <c r="B107" s="85"/>
       <c r="C107" s="5">
         <v>1094</v>
       </c>
       <c r="D107" s="5"/>
-      <c r="E107" s="58" t="s">
+      <c r="E107" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="58"/>
+      <c r="F107" s="88"/>
       <c r="G107" s="5">
         <v>22</v>
       </c>
@@ -3411,33 +3691,33 @@
       <c r="A108" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="52"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="53"/>
-      <c r="M108" s="53"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="83"/>
+      <c r="I108" s="83"/>
+      <c r="J108" s="83"/>
+      <c r="K108" s="83"/>
+      <c r="L108" s="83"/>
+      <c r="M108" s="83"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="54"/>
+      <c r="B109" s="84"/>
       <c r="C109" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="54" t="s">
+      <c r="D109" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="54"/>
+      <c r="E109" s="84"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -21074,98 +21354,1979 @@
       <c r="AMK131"/>
     </row>
     <row r="132" spans="1:1025" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="68" t="s">
+      <c r="A132" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B132" s="68"/>
-      <c r="C132" s="68"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="68"/>
-      <c r="F132" s="55"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="55"/>
-      <c r="I132" s="55"/>
-      <c r="J132" s="55"/>
-      <c r="K132" s="55"/>
-      <c r="L132" s="55"/>
-      <c r="M132" s="55"/>
+      <c r="B132" s="98"/>
+      <c r="C132" s="98"/>
+      <c r="D132" s="98"/>
+      <c r="E132" s="98"/>
+      <c r="F132" s="85"/>
+      <c r="G132" s="85"/>
+      <c r="H132" s="85"/>
+      <c r="I132" s="85"/>
+      <c r="J132" s="85"/>
+      <c r="K132" s="85"/>
+      <c r="L132" s="85"/>
+      <c r="M132" s="85"/>
+    </row>
+    <row r="136" spans="1:1025" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53"/>
+      <c r="H136" s="53"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="53"/>
+      <c r="K136" s="53"/>
+      <c r="L136" s="53"/>
+      <c r="M136" s="54"/>
+    </row>
+    <row r="137" spans="1:1025" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="57"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="57"/>
+      <c r="J137" s="57"/>
+      <c r="K137" s="57"/>
+      <c r="L137" s="57"/>
+      <c r="M137" s="58"/>
+    </row>
+    <row r="138" spans="1:1025" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J138" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="K138" s="57"/>
+      <c r="L138" s="57"/>
+      <c r="M138" s="58"/>
+    </row>
+    <row r="139" spans="1:1025" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="77"/>
+      <c r="C139" s="5">
+        <v>114</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="79"/>
+      <c r="G139" s="5">
+        <v>18</v>
+      </c>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="1:1025" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C140" s="57"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="57"/>
+      <c r="H140" s="57"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="57"/>
+      <c r="K140" s="57"/>
+      <c r="L140" s="57"/>
+      <c r="M140" s="58"/>
+    </row>
+    <row r="141" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A141" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="80"/>
+      <c r="C141" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="79"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="9"/>
+    </row>
+    <row r="142" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A142" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="16"/>
+    </row>
+    <row r="143" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A143" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E143" s="13"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A144" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E144" s="13"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A145" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B145" s="11"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A146" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A147" s="62"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="6"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A148" s="62"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A149" s="62"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A150" s="62"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="6"/>
+    </row>
+    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="62"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B152" s="69"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="69"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="69"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="69"/>
+      <c r="M152" s="70"/>
+    </row>
+    <row r="153" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B153" s="63"/>
+      <c r="C153" s="63"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="63"/>
+      <c r="F153" s="63"/>
+      <c r="G153" s="63"/>
+      <c r="H153" s="63"/>
+      <c r="I153" s="63"/>
+      <c r="J153" s="63"/>
+      <c r="K153" s="63"/>
+      <c r="L153" s="63"/>
+      <c r="M153" s="64"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A154" s="65"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="66"/>
+      <c r="H154" s="66"/>
+      <c r="I154" s="66"/>
+      <c r="J154" s="66"/>
+      <c r="K154" s="66"/>
+      <c r="L154" s="66"/>
+      <c r="M154" s="67"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A155" s="71"/>
+      <c r="B155" s="72"/>
+      <c r="C155" s="72"/>
+      <c r="D155" s="72"/>
+      <c r="E155" s="72"/>
+      <c r="F155" s="72"/>
+      <c r="G155" s="72"/>
+      <c r="H155" s="72"/>
+      <c r="I155" s="72"/>
+      <c r="J155" s="72"/>
+      <c r="K155" s="72"/>
+      <c r="L155" s="72"/>
+      <c r="M155" s="73"/>
+    </row>
+    <row r="156" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="74"/>
+      <c r="B156" s="75"/>
+      <c r="C156" s="75"/>
+      <c r="D156" s="75"/>
+      <c r="E156" s="75"/>
+      <c r="F156" s="75"/>
+      <c r="G156" s="75"/>
+      <c r="H156" s="75"/>
+      <c r="I156" s="75"/>
+      <c r="J156" s="75"/>
+      <c r="K156" s="75"/>
+      <c r="L156" s="75"/>
+      <c r="M156" s="76"/>
+    </row>
+    <row r="159" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C159" s="53"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="53"/>
+      <c r="H159" s="53"/>
+      <c r="I159" s="53"/>
+      <c r="J159" s="53"/>
+      <c r="K159" s="53"/>
+      <c r="L159" s="53"/>
+      <c r="M159" s="54"/>
+    </row>
+    <row r="160" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C160" s="57"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="57"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="57"/>
+      <c r="H160" s="57"/>
+      <c r="I160" s="57"/>
+      <c r="J160" s="57"/>
+      <c r="K160" s="57"/>
+      <c r="L160" s="57"/>
+      <c r="M160" s="58"/>
+    </row>
+    <row r="161" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="60">
+        <v>63</v>
+      </c>
+      <c r="C161" s="57"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="57"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="58"/>
+      <c r="I161" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J161" s="56">
+        <v>2011</v>
+      </c>
+      <c r="K161" s="57"/>
+      <c r="L161" s="57"/>
+      <c r="M161" s="58"/>
+    </row>
+    <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="77"/>
+      <c r="C162" s="5">
+        <v>63</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="79"/>
+      <c r="G162" s="5">
+        <v>3</v>
+      </c>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="6"/>
+    </row>
+    <row r="163" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C163" s="57"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="57"/>
+      <c r="H163" s="57"/>
+      <c r="I163" s="57"/>
+      <c r="J163" s="57"/>
+      <c r="K163" s="57"/>
+      <c r="L163" s="57"/>
+      <c r="M163" s="58"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="80"/>
+      <c r="C164" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="79"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="9"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B165" s="11"/>
+      <c r="C165" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="13"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="16"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B166" s="11"/>
+      <c r="C166" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="6"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A167" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B167" s="11"/>
+      <c r="C167" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D167" s="11"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="6"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A168" s="62"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="6"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A169" s="62"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="6"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A170" s="62"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="6"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A171" s="62"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="6"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A172" s="62"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="6"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A173" s="62"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="6"/>
+    </row>
+    <row r="174" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="62"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="6"/>
+    </row>
+    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B175" s="69"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="69"/>
+      <c r="E175" s="69"/>
+      <c r="F175" s="69"/>
+      <c r="G175" s="69"/>
+      <c r="H175" s="69"/>
+      <c r="I175" s="69"/>
+      <c r="J175" s="69"/>
+      <c r="K175" s="69"/>
+      <c r="L175" s="69"/>
+      <c r="M175" s="70"/>
+    </row>
+    <row r="176" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B176" s="63"/>
+      <c r="C176" s="63"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="63"/>
+      <c r="F176" s="63"/>
+      <c r="G176" s="63"/>
+      <c r="H176" s="63"/>
+      <c r="I176" s="63"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="63"/>
+      <c r="L176" s="63"/>
+      <c r="M176" s="64"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" s="65"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="66"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="66"/>
+      <c r="H177" s="66"/>
+      <c r="I177" s="66"/>
+      <c r="J177" s="66"/>
+      <c r="K177" s="66"/>
+      <c r="L177" s="66"/>
+      <c r="M177" s="67"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" s="71"/>
+      <c r="B178" s="72"/>
+      <c r="C178" s="72"/>
+      <c r="D178" s="72"/>
+      <c r="E178" s="72"/>
+      <c r="F178" s="72"/>
+      <c r="G178" s="72"/>
+      <c r="H178" s="72"/>
+      <c r="I178" s="72"/>
+      <c r="J178" s="72"/>
+      <c r="K178" s="72"/>
+      <c r="L178" s="72"/>
+      <c r="M178" s="73"/>
+    </row>
+    <row r="179" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="74"/>
+      <c r="B179" s="75"/>
+      <c r="C179" s="75"/>
+      <c r="D179" s="75"/>
+      <c r="E179" s="75"/>
+      <c r="F179" s="75"/>
+      <c r="G179" s="75"/>
+      <c r="H179" s="75"/>
+      <c r="I179" s="75"/>
+      <c r="J179" s="75"/>
+      <c r="K179" s="75"/>
+      <c r="L179" s="75"/>
+      <c r="M179" s="76"/>
+    </row>
+    <row r="181" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C181" s="53"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="53"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="53"/>
+      <c r="H181" s="53"/>
+      <c r="I181" s="53"/>
+      <c r="J181" s="53"/>
+      <c r="K181" s="53"/>
+      <c r="L181" s="53"/>
+      <c r="M181" s="54"/>
+    </row>
+    <row r="182" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="57"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="57"/>
+      <c r="K182" s="57"/>
+      <c r="L182" s="57"/>
+      <c r="M182" s="58"/>
+    </row>
+    <row r="183" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="60">
+        <v>63</v>
+      </c>
+      <c r="C183" s="57"/>
+      <c r="D183" s="57"/>
+      <c r="E183" s="57"/>
+      <c r="F183" s="57"/>
+      <c r="G183" s="57"/>
+      <c r="H183" s="58"/>
+      <c r="I183" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J183" s="56">
+        <v>2011</v>
+      </c>
+      <c r="K183" s="57"/>
+      <c r="L183" s="57"/>
+      <c r="M183" s="58"/>
+    </row>
+    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="77"/>
+      <c r="C184" s="5">
+        <v>63</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="79"/>
+      <c r="G184" s="5">
+        <v>3</v>
+      </c>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="6"/>
+    </row>
+    <row r="185" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C185" s="57"/>
+      <c r="D185" s="57"/>
+      <c r="E185" s="57"/>
+      <c r="F185" s="57"/>
+      <c r="G185" s="57"/>
+      <c r="H185" s="57"/>
+      <c r="I185" s="57"/>
+      <c r="J185" s="57"/>
+      <c r="K185" s="57"/>
+      <c r="L185" s="57"/>
+      <c r="M185" s="58"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A186" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="80"/>
+      <c r="C186" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="79"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="9"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A187" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" s="13"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15"/>
+      <c r="M187" s="16"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A188" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B188" s="11"/>
+      <c r="C188" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E188" s="13"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="6"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A189" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B189" s="11"/>
+      <c r="C189" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D189" s="11"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="6"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A190" s="62"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="6"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A191" s="62"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="6"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A192" s="62"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="6"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A193" s="62"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="36"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="6"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A194" s="62"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="36"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="6"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A195" s="62"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="36"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="6"/>
+    </row>
+    <row r="196" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="62"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="36"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="6"/>
+    </row>
+    <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B197" s="69"/>
+      <c r="C197" s="69"/>
+      <c r="D197" s="69"/>
+      <c r="E197" s="69"/>
+      <c r="F197" s="69"/>
+      <c r="G197" s="69"/>
+      <c r="H197" s="69"/>
+      <c r="I197" s="69"/>
+      <c r="J197" s="69"/>
+      <c r="K197" s="69"/>
+      <c r="L197" s="69"/>
+      <c r="M197" s="70"/>
+    </row>
+    <row r="198" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B198" s="63"/>
+      <c r="C198" s="63"/>
+      <c r="D198" s="63"/>
+      <c r="E198" s="63"/>
+      <c r="F198" s="63"/>
+      <c r="G198" s="63"/>
+      <c r="H198" s="63"/>
+      <c r="I198" s="63"/>
+      <c r="J198" s="63"/>
+      <c r="K198" s="63"/>
+      <c r="L198" s="63"/>
+      <c r="M198" s="64"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A199" s="65"/>
+      <c r="B199" s="66"/>
+      <c r="C199" s="66"/>
+      <c r="D199" s="66"/>
+      <c r="E199" s="66"/>
+      <c r="F199" s="66"/>
+      <c r="G199" s="66"/>
+      <c r="H199" s="66"/>
+      <c r="I199" s="66"/>
+      <c r="J199" s="66"/>
+      <c r="K199" s="66"/>
+      <c r="L199" s="66"/>
+      <c r="M199" s="67"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A200" s="71"/>
+      <c r="B200" s="72"/>
+      <c r="C200" s="72"/>
+      <c r="D200" s="72"/>
+      <c r="E200" s="72"/>
+      <c r="F200" s="72"/>
+      <c r="G200" s="72"/>
+      <c r="H200" s="72"/>
+      <c r="I200" s="72"/>
+      <c r="J200" s="72"/>
+      <c r="K200" s="72"/>
+      <c r="L200" s="72"/>
+      <c r="M200" s="73"/>
+    </row>
+    <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="74"/>
+      <c r="B201" s="75"/>
+      <c r="C201" s="75"/>
+      <c r="D201" s="75"/>
+      <c r="E201" s="75"/>
+      <c r="F201" s="75"/>
+      <c r="G201" s="75"/>
+      <c r="H201" s="75"/>
+      <c r="I201" s="75"/>
+      <c r="J201" s="75"/>
+      <c r="K201" s="75"/>
+      <c r="L201" s="75"/>
+      <c r="M201" s="76"/>
+    </row>
+    <row r="204" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C204" s="53"/>
+      <c r="D204" s="53"/>
+      <c r="E204" s="53"/>
+      <c r="F204" s="53"/>
+      <c r="G204" s="53"/>
+      <c r="H204" s="53"/>
+      <c r="I204" s="53"/>
+      <c r="J204" s="53"/>
+      <c r="K204" s="53"/>
+      <c r="L204" s="53"/>
+      <c r="M204" s="54"/>
+    </row>
+    <row r="205" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C205" s="57"/>
+      <c r="D205" s="57"/>
+      <c r="E205" s="57"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="57"/>
+      <c r="H205" s="57"/>
+      <c r="I205" s="57"/>
+      <c r="J205" s="57"/>
+      <c r="K205" s="57"/>
+      <c r="L205" s="57"/>
+      <c r="M205" s="58"/>
+    </row>
+    <row r="206" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="60">
+        <v>63</v>
+      </c>
+      <c r="C206" s="57"/>
+      <c r="D206" s="57"/>
+      <c r="E206" s="57"/>
+      <c r="F206" s="57"/>
+      <c r="G206" s="57"/>
+      <c r="H206" s="58"/>
+      <c r="I206" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J206" s="56">
+        <v>2011</v>
+      </c>
+      <c r="K206" s="57"/>
+      <c r="L206" s="57"/>
+      <c r="M206" s="58"/>
+    </row>
+    <row r="207" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="77"/>
+      <c r="C207" s="5">
+        <v>63</v>
+      </c>
+      <c r="D207" s="5"/>
+      <c r="E207" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="79"/>
+      <c r="G207" s="5">
+        <v>3</v>
+      </c>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="6"/>
+    </row>
+    <row r="208" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C208" s="57"/>
+      <c r="D208" s="57"/>
+      <c r="E208" s="57"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="57"/>
+      <c r="H208" s="57"/>
+      <c r="I208" s="57"/>
+      <c r="J208" s="57"/>
+      <c r="K208" s="57"/>
+      <c r="L208" s="57"/>
+      <c r="M208" s="58"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A209" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="80"/>
+      <c r="C209" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="79"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8"/>
+      <c r="K209" s="8"/>
+      <c r="L209" s="8"/>
+      <c r="M209" s="9"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A210" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B210" s="11"/>
+      <c r="C210" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="13"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
+      <c r="J210" s="15"/>
+      <c r="K210" s="15"/>
+      <c r="L210" s="15"/>
+      <c r="M210" s="16"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A211" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B211" s="11"/>
+      <c r="C211" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E211" s="13"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="6"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A212" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B212" s="11"/>
+      <c r="C212" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D212" s="11"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="6"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A213" s="62"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="36"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="6"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A214" s="62"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="36"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
+      <c r="M214" s="6"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A215" s="62"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="36"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="5"/>
+      <c r="M215" s="6"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A216" s="62"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="36"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="6"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A217" s="62"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="36"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="6"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A218" s="62"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="5"/>
+      <c r="M218" s="6"/>
+    </row>
+    <row r="219" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="62"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="36"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="6"/>
+    </row>
+    <row r="220" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B220" s="69"/>
+      <c r="C220" s="69"/>
+      <c r="D220" s="69"/>
+      <c r="E220" s="69"/>
+      <c r="F220" s="69"/>
+      <c r="G220" s="69"/>
+      <c r="H220" s="69"/>
+      <c r="I220" s="69"/>
+      <c r="J220" s="69"/>
+      <c r="K220" s="69"/>
+      <c r="L220" s="69"/>
+      <c r="M220" s="70"/>
+    </row>
+    <row r="221" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B221" s="63"/>
+      <c r="C221" s="63"/>
+      <c r="D221" s="63"/>
+      <c r="E221" s="63"/>
+      <c r="F221" s="63"/>
+      <c r="G221" s="63"/>
+      <c r="H221" s="63"/>
+      <c r="I221" s="63"/>
+      <c r="J221" s="63"/>
+      <c r="K221" s="63"/>
+      <c r="L221" s="63"/>
+      <c r="M221" s="64"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A222" s="65"/>
+      <c r="B222" s="66"/>
+      <c r="C222" s="66"/>
+      <c r="D222" s="66"/>
+      <c r="E222" s="66"/>
+      <c r="F222" s="66"/>
+      <c r="G222" s="66"/>
+      <c r="H222" s="66"/>
+      <c r="I222" s="66"/>
+      <c r="J222" s="66"/>
+      <c r="K222" s="66"/>
+      <c r="L222" s="66"/>
+      <c r="M222" s="67"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A223" s="71"/>
+      <c r="B223" s="72"/>
+      <c r="C223" s="72"/>
+      <c r="D223" s="72"/>
+      <c r="E223" s="72"/>
+      <c r="F223" s="72"/>
+      <c r="G223" s="72"/>
+      <c r="H223" s="72"/>
+      <c r="I223" s="72"/>
+      <c r="J223" s="72"/>
+      <c r="K223" s="72"/>
+      <c r="L223" s="72"/>
+      <c r="M223" s="73"/>
+    </row>
+    <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="74"/>
+      <c r="B224" s="75"/>
+      <c r="C224" s="75"/>
+      <c r="D224" s="75"/>
+      <c r="E224" s="75"/>
+      <c r="F224" s="75"/>
+      <c r="G224" s="75"/>
+      <c r="H224" s="75"/>
+      <c r="I224" s="75"/>
+      <c r="J224" s="75"/>
+      <c r="K224" s="75"/>
+      <c r="L224" s="75"/>
+      <c r="M224" s="76"/>
+    </row>
+    <row r="227" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C227" s="53"/>
+      <c r="D227" s="53"/>
+      <c r="E227" s="53"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="53"/>
+      <c r="H227" s="53"/>
+      <c r="I227" s="53"/>
+      <c r="J227" s="53"/>
+      <c r="K227" s="53"/>
+      <c r="L227" s="53"/>
+      <c r="M227" s="54"/>
+    </row>
+    <row r="228" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C228" s="57"/>
+      <c r="D228" s="57"/>
+      <c r="E228" s="57"/>
+      <c r="F228" s="57"/>
+      <c r="G228" s="57"/>
+      <c r="H228" s="57"/>
+      <c r="I228" s="57"/>
+      <c r="J228" s="57"/>
+      <c r="K228" s="57"/>
+      <c r="L228" s="57"/>
+      <c r="M228" s="58"/>
+    </row>
+    <row r="229" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" s="60">
+        <v>63</v>
+      </c>
+      <c r="C229" s="57"/>
+      <c r="D229" s="57"/>
+      <c r="E229" s="57"/>
+      <c r="F229" s="57"/>
+      <c r="G229" s="57"/>
+      <c r="H229" s="58"/>
+      <c r="I229" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J229" s="56">
+        <v>2011</v>
+      </c>
+      <c r="K229" s="57"/>
+      <c r="L229" s="57"/>
+      <c r="M229" s="58"/>
+    </row>
+    <row r="230" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="77"/>
+      <c r="C230" s="5">
+        <v>63</v>
+      </c>
+      <c r="D230" s="5"/>
+      <c r="E230" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="79"/>
+      <c r="G230" s="5">
+        <v>3</v>
+      </c>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+      <c r="M230" s="6"/>
+    </row>
+    <row r="231" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C231" s="57"/>
+      <c r="D231" s="57"/>
+      <c r="E231" s="57"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="57"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="57"/>
+      <c r="J231" s="57"/>
+      <c r="K231" s="57"/>
+      <c r="L231" s="57"/>
+      <c r="M231" s="58"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A232" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232" s="80"/>
+      <c r="C232" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" s="79"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="8"/>
+      <c r="H232" s="8"/>
+      <c r="I232" s="8"/>
+      <c r="J232" s="8"/>
+      <c r="K232" s="8"/>
+      <c r="L232" s="8"/>
+      <c r="M232" s="9"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A233" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B233" s="11"/>
+      <c r="C233" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E233" s="13"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="15"/>
+      <c r="H233" s="15"/>
+      <c r="I233" s="15"/>
+      <c r="J233" s="15"/>
+      <c r="K233" s="15"/>
+      <c r="L233" s="15"/>
+      <c r="M233" s="16"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A234" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B234" s="11"/>
+      <c r="C234" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E234" s="13"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="5"/>
+      <c r="M234" s="6"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A235" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B235" s="11"/>
+      <c r="C235" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D235" s="11"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="6"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A236" s="62"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="36"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="17"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="5"/>
+      <c r="M236" s="6"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A237" s="62"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="36"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="5"/>
+      <c r="M237" s="6"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A238" s="62"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="36"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="5"/>
+      <c r="M238" s="6"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A239" s="62"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="5"/>
+      <c r="M239" s="6"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A240" s="62"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="36"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="5"/>
+      <c r="M240" s="6"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A241" s="62"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="36"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5"/>
+      <c r="M241" s="6"/>
+    </row>
+    <row r="242" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="62"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="36"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="5"/>
+      <c r="M242" s="6"/>
+    </row>
+    <row r="243" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B243" s="69"/>
+      <c r="C243" s="69"/>
+      <c r="D243" s="69"/>
+      <c r="E243" s="69"/>
+      <c r="F243" s="69"/>
+      <c r="G243" s="69"/>
+      <c r="H243" s="69"/>
+      <c r="I243" s="69"/>
+      <c r="J243" s="69"/>
+      <c r="K243" s="69"/>
+      <c r="L243" s="69"/>
+      <c r="M243" s="70"/>
+    </row>
+    <row r="244" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A244" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B244" s="63"/>
+      <c r="C244" s="63"/>
+      <c r="D244" s="63"/>
+      <c r="E244" s="63"/>
+      <c r="F244" s="63"/>
+      <c r="G244" s="63"/>
+      <c r="H244" s="63"/>
+      <c r="I244" s="63"/>
+      <c r="J244" s="63"/>
+      <c r="K244" s="63"/>
+      <c r="L244" s="63"/>
+      <c r="M244" s="64"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A245" s="65"/>
+      <c r="B245" s="66"/>
+      <c r="C245" s="66"/>
+      <c r="D245" s="66"/>
+      <c r="E245" s="66"/>
+      <c r="F245" s="66"/>
+      <c r="G245" s="66"/>
+      <c r="H245" s="66"/>
+      <c r="I245" s="66"/>
+      <c r="J245" s="66"/>
+      <c r="K245" s="66"/>
+      <c r="L245" s="66"/>
+      <c r="M245" s="67"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A246" s="71"/>
+      <c r="B246" s="72"/>
+      <c r="C246" s="72"/>
+      <c r="D246" s="72"/>
+      <c r="E246" s="72"/>
+      <c r="F246" s="72"/>
+      <c r="G246" s="72"/>
+      <c r="H246" s="72"/>
+      <c r="I246" s="72"/>
+      <c r="J246" s="72"/>
+      <c r="K246" s="72"/>
+      <c r="L246" s="72"/>
+      <c r="M246" s="73"/>
+    </row>
+    <row r="247" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="74"/>
+      <c r="B247" s="75"/>
+      <c r="C247" s="75"/>
+      <c r="D247" s="75"/>
+      <c r="E247" s="75"/>
+      <c r="F247" s="75"/>
+      <c r="G247" s="75"/>
+      <c r="H247" s="75"/>
+      <c r="I247" s="75"/>
+      <c r="J247" s="75"/>
+      <c r="K247" s="75"/>
+      <c r="L247" s="75"/>
+      <c r="M247" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="104">
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="A84:M85"/>
+    <mergeCell ref="B74:M74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A83:M83"/>
     <mergeCell ref="B108:M108"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="D109:E109"/>
-    <mergeCell ref="A132:M132"/>
     <mergeCell ref="B104:M104"/>
     <mergeCell ref="B105:M105"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="J106:M106"/>
     <mergeCell ref="A107:B107"/>
     <mergeCell ref="E107:F107"/>
-    <mergeCell ref="A84:M85"/>
-    <mergeCell ref="B74:M74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="B70:M70"/>
-    <mergeCell ref="B71:M71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="E73:F73"/>
     <mergeCell ref="A61:M61"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="A63:I63"/>
     <mergeCell ref="A64:I64"/>
     <mergeCell ref="A65:I65"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B71:M71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="A45:M46"/>
+    <mergeCell ref="B50:M50"/>
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="J52:M52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="B54:M54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A45:M46"/>
-    <mergeCell ref="B50:M50"/>
-    <mergeCell ref="B51:M51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="B30:M30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="A43:M44"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:M20"/>
-    <mergeCell ref="A21:M22"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="B89:M89"/>
+    <mergeCell ref="B90:M90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="E92:F92"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B89:M89"/>
-    <mergeCell ref="B90:M90"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:M20"/>
+    <mergeCell ref="A21:M22"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="A152:M152"/>
     <mergeCell ref="B93:M93"/>
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="A101:M101"/>
     <mergeCell ref="A102:M103"/>
+    <mergeCell ref="A132:M132"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="A178:M179"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="A155:M156"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="A243:M243"/>
+    <mergeCell ref="A246:M247"/>
+    <mergeCell ref="A220:M220"/>
+    <mergeCell ref="A223:M224"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="A197:M197"/>
+    <mergeCell ref="A200:M201"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="D209:E209"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/data_information.xlsx
+++ b/data_information.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="180">
   <si>
     <t xml:space="preserve">Filename</t>
   </si>
@@ -563,6 +563,24 @@
   <si>
     <t xml:space="preserve">Total sunshine duration</t>
   </si>
+  <si>
+    <t xml:space="preserve">THE_UK_Universities_ranking.ods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top universities in the UK 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.timeshighereducation.com/student/best-universities/best-universities-uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institution</t>
+  </si>
 </sst>
 </file>
 
@@ -575,7 +593,7 @@
     <numFmt numFmtId="167" formatCode="0%"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -641,6 +659,12 @@
       <name val="Consolas"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1025,7 +1049,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1328,6 +1352,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1409,10 +1437,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:M65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A242" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G260" activeCellId="0" sqref="G260"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A257" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F275" activeCellId="0" sqref="F275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5923,6 +5951,51 @@
       <c r="L247" s="30"/>
       <c r="M247" s="30"/>
     </row>
+    <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0"/>
+      <c r="B248" s="0"/>
+      <c r="C248" s="0"/>
+      <c r="D248" s="0"/>
+      <c r="E248" s="0"/>
+      <c r="F248" s="0"/>
+      <c r="G248" s="0"/>
+      <c r="H248" s="0"/>
+      <c r="I248" s="0"/>
+      <c r="J248" s="0"/>
+      <c r="K248" s="0"/>
+      <c r="L248" s="0"/>
+      <c r="M248" s="0"/>
+    </row>
+    <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0"/>
+      <c r="B249" s="0"/>
+      <c r="C249" s="0"/>
+      <c r="D249" s="0"/>
+      <c r="E249" s="0"/>
+      <c r="F249" s="0"/>
+      <c r="G249" s="0"/>
+      <c r="H249" s="0"/>
+      <c r="I249" s="0"/>
+      <c r="J249" s="0"/>
+      <c r="K249" s="0"/>
+      <c r="L249" s="0"/>
+      <c r="M249" s="0"/>
+    </row>
+    <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0"/>
+      <c r="B250" s="0"/>
+      <c r="C250" s="0"/>
+      <c r="D250" s="0"/>
+      <c r="E250" s="0"/>
+      <c r="F250" s="0"/>
+      <c r="G250" s="0"/>
+      <c r="H250" s="0"/>
+      <c r="I250" s="0"/>
+      <c r="J250" s="0"/>
+      <c r="K250" s="0"/>
+      <c r="L250" s="0"/>
+      <c r="M250" s="0"/>
+    </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
         <v>0</v>
@@ -6211,8 +6284,228 @@
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
     </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J270" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" s="2"/>
+      <c r="C271" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D271" s="6"/>
+      <c r="E271" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" s="4"/>
+      <c r="G271" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H271" s="6"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+      <c r="K271" s="6"/>
+      <c r="L271" s="6"/>
+      <c r="M271" s="7"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="C272" s="76"/>
+      <c r="D272" s="76"/>
+      <c r="E272" s="76"/>
+      <c r="F272" s="76"/>
+      <c r="G272" s="76"/>
+      <c r="H272" s="76"/>
+      <c r="I272" s="76"/>
+      <c r="J272" s="76"/>
+      <c r="K272" s="76"/>
+      <c r="L272" s="76"/>
+      <c r="M272" s="76"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" s="8"/>
+      <c r="C273" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E273" s="4"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="10"/>
+      <c r="H273" s="10"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="10"/>
+      <c r="K273" s="10"/>
+      <c r="L273" s="10"/>
+      <c r="M273" s="11"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B274" s="13"/>
+      <c r="C274" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D274" s="12"/>
+      <c r="E274" s="15"/>
+      <c r="F274" s="16"/>
+      <c r="G274" s="17"/>
+      <c r="H274" s="17"/>
+      <c r="I274" s="17"/>
+      <c r="J274" s="17"/>
+      <c r="K274" s="17"/>
+      <c r="L274" s="17"/>
+      <c r="M274" s="18"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B275" s="13"/>
+      <c r="C275" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D275" s="12"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="19"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+      <c r="K275" s="6"/>
+      <c r="L275" s="6"/>
+      <c r="M275" s="7"/>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B276" s="13"/>
+      <c r="C276" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="12"/>
+      <c r="E276" s="15"/>
+      <c r="F276" s="19"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
+      <c r="M276" s="7"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B277" s="13"/>
+      <c r="C277" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D277" s="75"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="19"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6"/>
+      <c r="M277" s="7"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+      <c r="L278" s="2"/>
+      <c r="M278" s="2"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="124">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:H3"/>
@@ -6327,12 +6620,23 @@
     <mergeCell ref="A256:B256"/>
     <mergeCell ref="D256:E256"/>
     <mergeCell ref="A264:M264"/>
+    <mergeCell ref="B268:M268"/>
+    <mergeCell ref="B269:M269"/>
+    <mergeCell ref="B270:H270"/>
+    <mergeCell ref="J270:M270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="B272:M272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="A278:M278"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" display="4 Northern Ireland reformed its local government boundaries in April 2015. Estimates have been provided by the 11 newly created boundaries. For more information see http://www.doeni.gov.uk/local_government_reform"/>
     <hyperlink ref="B30" r:id="rId2" display="http://www.bbc.co.uk/news/uk-41203240"/>
     <hyperlink ref="B93" r:id="rId3" display="https://www.getthedata.com/open-pubs"/>
     <hyperlink ref="B108" r:id="rId4" display="https://data.gov.uk/dataset/hospitals_"/>
+    <hyperlink ref="B272" r:id="rId5" display="https://www.timeshighereducation.com/student/best-universities/best-universities-uk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data_information.xlsx
+++ b/data_information.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1266,13 +1266,77 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,70 +1356,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1743,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P200" sqref="P200"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M190" sqref="M190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1756,76 +1756,76 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="5">
         <v>451</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="88"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="5">
         <v>7</v>
       </c>
@@ -1840,33 +1840,33 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="88"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -2018,153 +2018,153 @@
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
     </row>
     <row r="19" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
     </row>
     <row r="20" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
     </row>
     <row r="21" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
@@ -2215,76 +2215,76 @@
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="87">
+      <c r="J28" s="76">
         <v>2016</v>
       </c>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="85"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="5">
         <v>380</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="88"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="5">
         <v>10</v>
       </c>
@@ -2299,33 +2299,33 @@
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="89"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2546,158 +2546,158 @@
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
     </row>
     <row r="43" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="95"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="87" t="s">
+      <c r="B50" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
       <c r="I52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="87" t="s">
+      <c r="J52" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="85"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="5">
         <v>161</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="88" t="s">
+      <c r="E53" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="88"/>
+      <c r="F53" s="69"/>
       <c r="G53" s="5">
         <v>5</v>
       </c>
@@ -2712,33 +2712,33 @@
       <c r="A54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="89"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="88" t="s">
+      <c r="D55" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="88"/>
+      <c r="E55" s="69"/>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -2854,85 +2854,85 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
     </row>
     <row r="62" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
       <c r="J62" s="24"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
       <c r="M62" s="26"/>
     </row>
     <row r="63" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="97" t="s">
+      <c r="A63" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="97"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
       <c r="J63" s="27"/>
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="97" t="s">
+      <c r="A64" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="97"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="97"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
       <c r="J64" s="27"/>
       <c r="K64" s="28"/>
       <c r="L64" s="28"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="97" t="s">
+      <c r="A65" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
       <c r="J65" s="27"/>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
@@ -2975,76 +2975,76 @@
       <c r="A70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="87" t="s">
+      <c r="B70" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="87"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="87"/>
-      <c r="J70" s="87"/>
-      <c r="K70" s="87"/>
-      <c r="L70" s="87"/>
-      <c r="M70" s="87"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="76"/>
+      <c r="L70" s="76"/>
+      <c r="M70" s="76"/>
     </row>
     <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="87" t="s">
+      <c r="B71" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="76"/>
+      <c r="K71" s="76"/>
+      <c r="L71" s="76"/>
+      <c r="M71" s="76"/>
     </row>
     <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="87" t="s">
+      <c r="B72" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
       <c r="I72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J72" s="87">
+      <c r="J72" s="76">
         <v>2017</v>
       </c>
-      <c r="K72" s="87"/>
-      <c r="L72" s="87"/>
-      <c r="M72" s="87"/>
+      <c r="K72" s="76"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="76"/>
     </row>
     <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="85" t="s">
+      <c r="A73" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="85"/>
+      <c r="B73" s="68"/>
       <c r="C73" s="5">
         <v>24303</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="88" t="s">
+      <c r="E73" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="88"/>
+      <c r="F73" s="69"/>
       <c r="G73" s="5">
         <v>8</v>
       </c>
@@ -3059,31 +3059,31 @@
       <c r="A74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="89"/>
+      <c r="B75" s="72"/>
       <c r="C75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="88" t="s">
+      <c r="D75" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="88"/>
+      <c r="E75" s="69"/>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -3235,51 +3235,51 @@
       <c r="M82" s="6"/>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="85"/>
-      <c r="L83" s="85"/>
-      <c r="M83" s="85"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="68"/>
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="86"/>
-      <c r="B84" s="86"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="86"/>
-      <c r="I84" s="86"/>
-      <c r="J84" s="86"/>
-      <c r="K84" s="86"/>
-      <c r="L84" s="86"/>
-      <c r="M84" s="86"/>
+      <c r="A84" s="70"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="70"/>
     </row>
     <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="86"/>
-      <c r="B85" s="86"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="86"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="86"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="86"/>
-      <c r="I85" s="86"/>
-      <c r="J85" s="86"/>
-      <c r="K85" s="86"/>
-      <c r="L85" s="86"/>
-      <c r="M85" s="86"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="70"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="23"/>
@@ -3316,76 +3316,76 @@
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="87" t="s">
+      <c r="B89" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="87"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="87"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="87"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
-      <c r="K89" s="87"/>
-      <c r="L89" s="87"/>
-      <c r="M89" s="87"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="76"/>
+      <c r="M89" s="76"/>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="87" t="s">
+      <c r="B90" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="87"/>
-      <c r="D90" s="87"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="87"/>
-      <c r="G90" s="87"/>
-      <c r="H90" s="87"/>
-      <c r="I90" s="87"/>
-      <c r="J90" s="87"/>
-      <c r="K90" s="87"/>
-      <c r="L90" s="87"/>
-      <c r="M90" s="87"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="76"/>
+      <c r="K90" s="76"/>
+      <c r="L90" s="76"/>
+      <c r="M90" s="76"/>
     </row>
     <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="87" t="s">
+      <c r="B91" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="87"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="87"/>
-      <c r="G91" s="87"/>
-      <c r="H91" s="87"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="76"/>
       <c r="I91" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J91" s="87">
+      <c r="J91" s="76">
         <v>2017</v>
       </c>
-      <c r="K91" s="87"/>
-      <c r="L91" s="87"/>
-      <c r="M91" s="87"/>
+      <c r="K91" s="76"/>
+      <c r="L91" s="76"/>
+      <c r="M91" s="76"/>
     </row>
     <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="85" t="s">
+      <c r="A92" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="85"/>
+      <c r="B92" s="68"/>
       <c r="C92" s="5">
         <v>51567</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="E92" s="88" t="s">
+      <c r="E92" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="88"/>
+      <c r="F92" s="69"/>
       <c r="G92" s="5">
         <v>6</v>
       </c>
@@ -3400,33 +3400,33 @@
       <c r="A93" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="81" t="s">
+      <c r="B93" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
-      <c r="L93" s="83"/>
-      <c r="M93" s="83"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="71"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94" s="84" t="s">
+      <c r="A94" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="84"/>
+      <c r="B94" s="75"/>
       <c r="C94" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="84" t="s">
+      <c r="D94" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="84"/>
+      <c r="E94" s="75"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -3557,126 +3557,126 @@
       <c r="M100" s="6"/>
     </row>
     <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="85"/>
-      <c r="I101" s="85"/>
-      <c r="J101" s="85"/>
-      <c r="K101" s="85"/>
-      <c r="L101" s="85"/>
-      <c r="M101" s="85"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="68"/>
+      <c r="K101" s="68"/>
+      <c r="L101" s="68"/>
+      <c r="M101" s="68"/>
     </row>
     <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="86"/>
-      <c r="B102" s="86"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="86"/>
-      <c r="E102" s="86"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="86"/>
-      <c r="H102" s="86"/>
-      <c r="I102" s="86"/>
-      <c r="J102" s="86"/>
-      <c r="K102" s="86"/>
-      <c r="L102" s="86"/>
-      <c r="M102" s="86"/>
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="70"/>
+      <c r="L102" s="70"/>
+      <c r="M102" s="70"/>
     </row>
     <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="86"/>
-      <c r="B103" s="86"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="86"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="86"/>
-      <c r="I103" s="86"/>
-      <c r="J103" s="86"/>
-      <c r="K103" s="86"/>
-      <c r="L103" s="86"/>
-      <c r="M103" s="86"/>
+      <c r="A103" s="70"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="70"/>
+      <c r="L103" s="70"/>
+      <c r="M103" s="70"/>
     </row>
     <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="87" t="s">
+      <c r="B104" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="87"/>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="87"/>
-      <c r="I104" s="87"/>
-      <c r="J104" s="87"/>
-      <c r="K104" s="87"/>
-      <c r="L104" s="87"/>
-      <c r="M104" s="87"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="76"/>
+      <c r="L104" s="76"/>
+      <c r="M104" s="76"/>
     </row>
     <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="87" t="s">
+      <c r="B105" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="87"/>
-      <c r="D105" s="87"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="87"/>
-      <c r="H105" s="87"/>
-      <c r="I105" s="87"/>
-      <c r="J105" s="87"/>
-      <c r="K105" s="87"/>
-      <c r="L105" s="87"/>
-      <c r="M105" s="87"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+      <c r="K105" s="76"/>
+      <c r="L105" s="76"/>
+      <c r="M105" s="76"/>
     </row>
     <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="87" t="s">
+      <c r="B106" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="87"/>
-      <c r="D106" s="87"/>
-      <c r="E106" s="87"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="87"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
       <c r="I106" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J106" s="87">
+      <c r="J106" s="76">
         <v>2015</v>
       </c>
-      <c r="K106" s="87"/>
-      <c r="L106" s="87"/>
-      <c r="M106" s="87"/>
+      <c r="K106" s="76"/>
+      <c r="L106" s="76"/>
+      <c r="M106" s="76"/>
     </row>
     <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="85" t="s">
+      <c r="A107" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="85"/>
+      <c r="B107" s="68"/>
       <c r="C107" s="5">
         <v>1094</v>
       </c>
       <c r="D107" s="5"/>
-      <c r="E107" s="88" t="s">
+      <c r="E107" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="88"/>
+      <c r="F107" s="69"/>
       <c r="G107" s="5">
         <v>22</v>
       </c>
@@ -3691,33 +3691,33 @@
       <c r="A108" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="81" t="s">
+      <c r="B108" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="83"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="83"/>
-      <c r="J108" s="83"/>
-      <c r="K108" s="83"/>
-      <c r="L108" s="83"/>
-      <c r="M108" s="83"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="71"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="84"/>
+      <c r="B109" s="75"/>
       <c r="C109" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="84" t="s">
+      <c r="D109" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="84"/>
+      <c r="E109" s="75"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -21354,21 +21354,21 @@
       <c r="AMK131"/>
     </row>
     <row r="132" spans="1:1025" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="98" t="s">
+      <c r="A132" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B132" s="98"/>
-      <c r="C132" s="98"/>
-      <c r="D132" s="98"/>
-      <c r="E132" s="98"/>
-      <c r="F132" s="85"/>
-      <c r="G132" s="85"/>
-      <c r="H132" s="85"/>
-      <c r="I132" s="85"/>
-      <c r="J132" s="85"/>
-      <c r="K132" s="85"/>
-      <c r="L132" s="85"/>
-      <c r="M132" s="85"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="92"/>
+      <c r="D132" s="92"/>
+      <c r="E132" s="92"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
+      <c r="H132" s="68"/>
+      <c r="I132" s="68"/>
+      <c r="J132" s="68"/>
+      <c r="K132" s="68"/>
+      <c r="L132" s="68"/>
+      <c r="M132" s="68"/>
     </row>
     <row r="136" spans="1:1025" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="51" t="s">
@@ -21432,18 +21432,18 @@
       <c r="M138" s="58"/>
     </row>
     <row r="139" spans="1:1025" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="68" t="s">
+      <c r="A139" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B139" s="77"/>
+      <c r="B139" s="86"/>
       <c r="C139" s="5">
         <v>114</v>
       </c>
       <c r="D139" s="5"/>
-      <c r="E139" s="78" t="s">
+      <c r="E139" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F139" s="79"/>
+      <c r="F139" s="88"/>
       <c r="G139" s="5">
         <v>18</v>
       </c>
@@ -21474,17 +21474,17 @@
       <c r="M140" s="58"/>
     </row>
     <row r="141" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A141" s="78" t="s">
+      <c r="A141" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B141" s="80"/>
+      <c r="B141" s="89"/>
       <c r="C141" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D141" s="78" t="s">
+      <c r="D141" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E141" s="79"/>
+      <c r="E141" s="88"/>
       <c r="F141" s="7"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -21667,21 +21667,21 @@
       <c r="M151" s="6"/>
     </row>
     <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="68" t="s">
+      <c r="A152" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B152" s="69"/>
-      <c r="C152" s="69"/>
-      <c r="D152" s="69"/>
-      <c r="E152" s="69"/>
-      <c r="F152" s="69"/>
-      <c r="G152" s="69"/>
-      <c r="H152" s="69"/>
-      <c r="I152" s="69"/>
-      <c r="J152" s="69"/>
-      <c r="K152" s="69"/>
-      <c r="L152" s="69"/>
-      <c r="M152" s="70"/>
+      <c r="B152" s="90"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="90"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="90"/>
+      <c r="G152" s="90"/>
+      <c r="H152" s="90"/>
+      <c r="I152" s="90"/>
+      <c r="J152" s="90"/>
+      <c r="K152" s="90"/>
+      <c r="L152" s="90"/>
+      <c r="M152" s="91"/>
     </row>
     <row r="153" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="56" t="s">
@@ -21716,34 +21716,34 @@
       <c r="M154" s="67"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A155" s="71"/>
-      <c r="B155" s="72"/>
-      <c r="C155" s="72"/>
-      <c r="D155" s="72"/>
-      <c r="E155" s="72"/>
-      <c r="F155" s="72"/>
-      <c r="G155" s="72"/>
-      <c r="H155" s="72"/>
-      <c r="I155" s="72"/>
-      <c r="J155" s="72"/>
-      <c r="K155" s="72"/>
-      <c r="L155" s="72"/>
-      <c r="M155" s="73"/>
+      <c r="A155" s="93"/>
+      <c r="B155" s="94"/>
+      <c r="C155" s="94"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="94"/>
+      <c r="F155" s="94"/>
+      <c r="G155" s="94"/>
+      <c r="H155" s="94"/>
+      <c r="I155" s="94"/>
+      <c r="J155" s="94"/>
+      <c r="K155" s="94"/>
+      <c r="L155" s="94"/>
+      <c r="M155" s="95"/>
     </row>
     <row r="156" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="74"/>
-      <c r="B156" s="75"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="75"/>
-      <c r="E156" s="75"/>
-      <c r="F156" s="75"/>
-      <c r="G156" s="75"/>
-      <c r="H156" s="75"/>
-      <c r="I156" s="75"/>
-      <c r="J156" s="75"/>
-      <c r="K156" s="75"/>
-      <c r="L156" s="75"/>
-      <c r="M156" s="76"/>
+      <c r="A156" s="96"/>
+      <c r="B156" s="97"/>
+      <c r="C156" s="97"/>
+      <c r="D156" s="97"/>
+      <c r="E156" s="97"/>
+      <c r="F156" s="97"/>
+      <c r="G156" s="97"/>
+      <c r="H156" s="97"/>
+      <c r="I156" s="97"/>
+      <c r="J156" s="97"/>
+      <c r="K156" s="97"/>
+      <c r="L156" s="97"/>
+      <c r="M156" s="98"/>
     </row>
     <row r="159" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="51" t="s">
@@ -21807,18 +21807,18 @@
       <c r="M161" s="58"/>
     </row>
     <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="68" t="s">
+      <c r="A162" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="77"/>
+      <c r="B162" s="86"/>
       <c r="C162" s="5">
         <v>63</v>
       </c>
       <c r="D162" s="5"/>
-      <c r="E162" s="78" t="s">
+      <c r="E162" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F162" s="79"/>
+      <c r="F162" s="88"/>
       <c r="G162" s="5">
         <v>3</v>
       </c>
@@ -21849,17 +21849,17 @@
       <c r="M163" s="58"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A164" s="78" t="s">
+      <c r="A164" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B164" s="80"/>
+      <c r="B164" s="89"/>
       <c r="C164" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D164" s="78" t="s">
+      <c r="D164" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="79"/>
+      <c r="E164" s="88"/>
       <c r="F164" s="7"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
@@ -22036,21 +22036,21 @@
       <c r="M174" s="6"/>
     </row>
     <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="68" t="s">
+      <c r="A175" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="69"/>
-      <c r="C175" s="69"/>
-      <c r="D175" s="69"/>
-      <c r="E175" s="69"/>
-      <c r="F175" s="69"/>
-      <c r="G175" s="69"/>
-      <c r="H175" s="69"/>
-      <c r="I175" s="69"/>
-      <c r="J175" s="69"/>
-      <c r="K175" s="69"/>
-      <c r="L175" s="69"/>
-      <c r="M175" s="70"/>
+      <c r="B175" s="90"/>
+      <c r="C175" s="90"/>
+      <c r="D175" s="90"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="90"/>
+      <c r="G175" s="90"/>
+      <c r="H175" s="90"/>
+      <c r="I175" s="90"/>
+      <c r="J175" s="90"/>
+      <c r="K175" s="90"/>
+      <c r="L175" s="90"/>
+      <c r="M175" s="91"/>
     </row>
     <row r="176" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="56" t="s">
@@ -22069,7 +22069,7 @@
       <c r="L176" s="63"/>
       <c r="M176" s="64"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="65"/>
       <c r="B177" s="66"/>
       <c r="C177" s="66"/>
@@ -22084,37 +22084,37 @@
       <c r="L177" s="66"/>
       <c r="M177" s="67"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A178" s="71"/>
-      <c r="B178" s="72"/>
-      <c r="C178" s="72"/>
-      <c r="D178" s="72"/>
-      <c r="E178" s="72"/>
-      <c r="F178" s="72"/>
-      <c r="G178" s="72"/>
-      <c r="H178" s="72"/>
-      <c r="I178" s="72"/>
-      <c r="J178" s="72"/>
-      <c r="K178" s="72"/>
-      <c r="L178" s="72"/>
-      <c r="M178" s="73"/>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A178" s="93"/>
+      <c r="B178" s="94"/>
+      <c r="C178" s="94"/>
+      <c r="D178" s="94"/>
+      <c r="E178" s="94"/>
+      <c r="F178" s="94"/>
+      <c r="G178" s="94"/>
+      <c r="H178" s="94"/>
+      <c r="I178" s="94"/>
+      <c r="J178" s="94"/>
+      <c r="K178" s="94"/>
+      <c r="L178" s="94"/>
+      <c r="M178" s="95"/>
     </row>
-    <row r="179" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="74"/>
-      <c r="B179" s="75"/>
-      <c r="C179" s="75"/>
-      <c r="D179" s="75"/>
-      <c r="E179" s="75"/>
-      <c r="F179" s="75"/>
-      <c r="G179" s="75"/>
-      <c r="H179" s="75"/>
-      <c r="I179" s="75"/>
-      <c r="J179" s="75"/>
-      <c r="K179" s="75"/>
-      <c r="L179" s="75"/>
-      <c r="M179" s="76"/>
+    <row r="179" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="96"/>
+      <c r="B179" s="97"/>
+      <c r="C179" s="97"/>
+      <c r="D179" s="97"/>
+      <c r="E179" s="97"/>
+      <c r="F179" s="97"/>
+      <c r="G179" s="97"/>
+      <c r="H179" s="97"/>
+      <c r="I179" s="97"/>
+      <c r="J179" s="97"/>
+      <c r="K179" s="97"/>
+      <c r="L179" s="97"/>
+      <c r="M179" s="98"/>
     </row>
-    <row r="181" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="51" t="s">
         <v>0</v>
       </c>
@@ -22132,8 +22132,11 @@
       <c r="K181" s="53"/>
       <c r="L181" s="53"/>
       <c r="M181" s="54"/>
+      <c r="N181" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="182" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="55" t="s">
         <v>2</v>
       </c>
@@ -22152,7 +22155,7 @@
       <c r="L182" s="57"/>
       <c r="M182" s="58"/>
     </row>
-    <row r="183" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="59" t="s">
         <v>4</v>
       </c>
@@ -22175,19 +22178,19 @@
       <c r="L183" s="57"/>
       <c r="M183" s="58"/>
     </row>
-    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="68" t="s">
+    <row r="184" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="77"/>
+      <c r="B184" s="86"/>
       <c r="C184" s="5">
         <v>63</v>
       </c>
       <c r="D184" s="5"/>
-      <c r="E184" s="78" t="s">
+      <c r="E184" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F184" s="79"/>
+      <c r="F184" s="88"/>
       <c r="G184" s="5">
         <v>3</v>
       </c>
@@ -22198,7 +22201,7 @@
       <c r="L184" s="5"/>
       <c r="M184" s="6"/>
     </row>
-    <row r="185" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="61" t="s">
         <v>10</v>
       </c>
@@ -22217,18 +22220,18 @@
       <c r="L185" s="57"/>
       <c r="M185" s="58"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A186" s="78" t="s">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A186" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="80"/>
+      <c r="B186" s="89"/>
       <c r="C186" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D186" s="78" t="s">
+      <c r="D186" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E186" s="79"/>
+      <c r="E186" s="88"/>
       <c r="F186" s="7"/>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
@@ -22238,7 +22241,7 @@
       <c r="L186" s="8"/>
       <c r="M186" s="9"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="62" t="s">
         <v>109</v>
       </c>
@@ -22259,7 +22262,7 @@
       <c r="L187" s="15"/>
       <c r="M187" s="16"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="62" t="s">
         <v>137</v>
       </c>
@@ -22280,7 +22283,7 @@
       <c r="L188" s="5"/>
       <c r="M188" s="6"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="62" t="s">
         <v>143</v>
       </c>
@@ -22299,7 +22302,7 @@
       <c r="L189" s="5"/>
       <c r="M189" s="6"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="62"/>
       <c r="B190" s="11"/>
       <c r="C190" s="36"/>
@@ -22314,7 +22317,7 @@
       <c r="L190" s="5"/>
       <c r="M190" s="6"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="62"/>
       <c r="B191" s="11"/>
       <c r="C191" s="36"/>
@@ -22329,7 +22332,7 @@
       <c r="L191" s="5"/>
       <c r="M191" s="6"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="62"/>
       <c r="B192" s="11"/>
       <c r="C192" s="36"/>
@@ -22405,21 +22408,21 @@
       <c r="M196" s="6"/>
     </row>
     <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="68" t="s">
+      <c r="A197" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B197" s="69"/>
-      <c r="C197" s="69"/>
-      <c r="D197" s="69"/>
-      <c r="E197" s="69"/>
-      <c r="F197" s="69"/>
-      <c r="G197" s="69"/>
-      <c r="H197" s="69"/>
-      <c r="I197" s="69"/>
-      <c r="J197" s="69"/>
-      <c r="K197" s="69"/>
-      <c r="L197" s="69"/>
-      <c r="M197" s="70"/>
+      <c r="B197" s="90"/>
+      <c r="C197" s="90"/>
+      <c r="D197" s="90"/>
+      <c r="E197" s="90"/>
+      <c r="F197" s="90"/>
+      <c r="G197" s="90"/>
+      <c r="H197" s="90"/>
+      <c r="I197" s="90"/>
+      <c r="J197" s="90"/>
+      <c r="K197" s="90"/>
+      <c r="L197" s="90"/>
+      <c r="M197" s="91"/>
     </row>
     <row r="198" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="56" t="s">
@@ -22454,34 +22457,34 @@
       <c r="M199" s="67"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A200" s="71"/>
-      <c r="B200" s="72"/>
-      <c r="C200" s="72"/>
-      <c r="D200" s="72"/>
-      <c r="E200" s="72"/>
-      <c r="F200" s="72"/>
-      <c r="G200" s="72"/>
-      <c r="H200" s="72"/>
-      <c r="I200" s="72"/>
-      <c r="J200" s="72"/>
-      <c r="K200" s="72"/>
-      <c r="L200" s="72"/>
-      <c r="M200" s="73"/>
+      <c r="A200" s="93"/>
+      <c r="B200" s="94"/>
+      <c r="C200" s="94"/>
+      <c r="D200" s="94"/>
+      <c r="E200" s="94"/>
+      <c r="F200" s="94"/>
+      <c r="G200" s="94"/>
+      <c r="H200" s="94"/>
+      <c r="I200" s="94"/>
+      <c r="J200" s="94"/>
+      <c r="K200" s="94"/>
+      <c r="L200" s="94"/>
+      <c r="M200" s="95"/>
     </row>
     <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="74"/>
-      <c r="B201" s="75"/>
-      <c r="C201" s="75"/>
-      <c r="D201" s="75"/>
-      <c r="E201" s="75"/>
-      <c r="F201" s="75"/>
-      <c r="G201" s="75"/>
-      <c r="H201" s="75"/>
-      <c r="I201" s="75"/>
-      <c r="J201" s="75"/>
-      <c r="K201" s="75"/>
-      <c r="L201" s="75"/>
-      <c r="M201" s="76"/>
+      <c r="A201" s="96"/>
+      <c r="B201" s="97"/>
+      <c r="C201" s="97"/>
+      <c r="D201" s="97"/>
+      <c r="E201" s="97"/>
+      <c r="F201" s="97"/>
+      <c r="G201" s="97"/>
+      <c r="H201" s="97"/>
+      <c r="I201" s="97"/>
+      <c r="J201" s="97"/>
+      <c r="K201" s="97"/>
+      <c r="L201" s="97"/>
+      <c r="M201" s="98"/>
     </row>
     <row r="204" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="51" t="s">
@@ -22545,18 +22548,18 @@
       <c r="M206" s="58"/>
     </row>
     <row r="207" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="68" t="s">
+      <c r="A207" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B207" s="77"/>
+      <c r="B207" s="86"/>
       <c r="C207" s="5">
         <v>63</v>
       </c>
       <c r="D207" s="5"/>
-      <c r="E207" s="78" t="s">
+      <c r="E207" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F207" s="79"/>
+      <c r="F207" s="88"/>
       <c r="G207" s="5">
         <v>3</v>
       </c>
@@ -22587,17 +22590,17 @@
       <c r="M208" s="58"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A209" s="78" t="s">
+      <c r="A209" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B209" s="80"/>
+      <c r="B209" s="89"/>
       <c r="C209" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D209" s="78" t="s">
+      <c r="D209" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E209" s="79"/>
+      <c r="E209" s="88"/>
       <c r="F209" s="7"/>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
@@ -22774,21 +22777,21 @@
       <c r="M219" s="6"/>
     </row>
     <row r="220" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="68" t="s">
+      <c r="A220" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B220" s="69"/>
-      <c r="C220" s="69"/>
-      <c r="D220" s="69"/>
-      <c r="E220" s="69"/>
-      <c r="F220" s="69"/>
-      <c r="G220" s="69"/>
-      <c r="H220" s="69"/>
-      <c r="I220" s="69"/>
-      <c r="J220" s="69"/>
-      <c r="K220" s="69"/>
-      <c r="L220" s="69"/>
-      <c r="M220" s="70"/>
+      <c r="B220" s="90"/>
+      <c r="C220" s="90"/>
+      <c r="D220" s="90"/>
+      <c r="E220" s="90"/>
+      <c r="F220" s="90"/>
+      <c r="G220" s="90"/>
+      <c r="H220" s="90"/>
+      <c r="I220" s="90"/>
+      <c r="J220" s="90"/>
+      <c r="K220" s="90"/>
+      <c r="L220" s="90"/>
+      <c r="M220" s="91"/>
     </row>
     <row r="221" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="56" t="s">
@@ -22823,34 +22826,34 @@
       <c r="M222" s="67"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A223" s="71"/>
-      <c r="B223" s="72"/>
-      <c r="C223" s="72"/>
-      <c r="D223" s="72"/>
-      <c r="E223" s="72"/>
-      <c r="F223" s="72"/>
-      <c r="G223" s="72"/>
-      <c r="H223" s="72"/>
-      <c r="I223" s="72"/>
-      <c r="J223" s="72"/>
-      <c r="K223" s="72"/>
-      <c r="L223" s="72"/>
-      <c r="M223" s="73"/>
+      <c r="A223" s="93"/>
+      <c r="B223" s="94"/>
+      <c r="C223" s="94"/>
+      <c r="D223" s="94"/>
+      <c r="E223" s="94"/>
+      <c r="F223" s="94"/>
+      <c r="G223" s="94"/>
+      <c r="H223" s="94"/>
+      <c r="I223" s="94"/>
+      <c r="J223" s="94"/>
+      <c r="K223" s="94"/>
+      <c r="L223" s="94"/>
+      <c r="M223" s="95"/>
     </row>
     <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="74"/>
-      <c r="B224" s="75"/>
-      <c r="C224" s="75"/>
-      <c r="D224" s="75"/>
-      <c r="E224" s="75"/>
-      <c r="F224" s="75"/>
-      <c r="G224" s="75"/>
-      <c r="H224" s="75"/>
-      <c r="I224" s="75"/>
-      <c r="J224" s="75"/>
-      <c r="K224" s="75"/>
-      <c r="L224" s="75"/>
-      <c r="M224" s="76"/>
+      <c r="A224" s="96"/>
+      <c r="B224" s="97"/>
+      <c r="C224" s="97"/>
+      <c r="D224" s="97"/>
+      <c r="E224" s="97"/>
+      <c r="F224" s="97"/>
+      <c r="G224" s="97"/>
+      <c r="H224" s="97"/>
+      <c r="I224" s="97"/>
+      <c r="J224" s="97"/>
+      <c r="K224" s="97"/>
+      <c r="L224" s="97"/>
+      <c r="M224" s="98"/>
     </row>
     <row r="227" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="51" t="s">
@@ -22914,18 +22917,18 @@
       <c r="M229" s="58"/>
     </row>
     <row r="230" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="68" t="s">
+      <c r="A230" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B230" s="77"/>
+      <c r="B230" s="86"/>
       <c r="C230" s="5">
         <v>63</v>
       </c>
       <c r="D230" s="5"/>
-      <c r="E230" s="78" t="s">
+      <c r="E230" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F230" s="79"/>
+      <c r="F230" s="88"/>
       <c r="G230" s="5">
         <v>3</v>
       </c>
@@ -22956,17 +22959,17 @@
       <c r="M231" s="58"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A232" s="78" t="s">
+      <c r="A232" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B232" s="80"/>
+      <c r="B232" s="89"/>
       <c r="C232" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D232" s="78" t="s">
+      <c r="D232" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E232" s="79"/>
+      <c r="E232" s="88"/>
       <c r="F232" s="7"/>
       <c r="G232" s="8"/>
       <c r="H232" s="8"/>
@@ -23143,21 +23146,21 @@
       <c r="M242" s="6"/>
     </row>
     <row r="243" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="68" t="s">
+      <c r="A243" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B243" s="69"/>
-      <c r="C243" s="69"/>
-      <c r="D243" s="69"/>
-      <c r="E243" s="69"/>
-      <c r="F243" s="69"/>
-      <c r="G243" s="69"/>
-      <c r="H243" s="69"/>
-      <c r="I243" s="69"/>
-      <c r="J243" s="69"/>
-      <c r="K243" s="69"/>
-      <c r="L243" s="69"/>
-      <c r="M243" s="70"/>
+      <c r="B243" s="90"/>
+      <c r="C243" s="90"/>
+      <c r="D243" s="90"/>
+      <c r="E243" s="90"/>
+      <c r="F243" s="90"/>
+      <c r="G243" s="90"/>
+      <c r="H243" s="90"/>
+      <c r="I243" s="90"/>
+      <c r="J243" s="90"/>
+      <c r="K243" s="90"/>
+      <c r="L243" s="90"/>
+      <c r="M243" s="91"/>
     </row>
     <row r="244" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="56" t="s">
@@ -23192,37 +23195,119 @@
       <c r="M245" s="67"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A246" s="71"/>
-      <c r="B246" s="72"/>
-      <c r="C246" s="72"/>
-      <c r="D246" s="72"/>
-      <c r="E246" s="72"/>
-      <c r="F246" s="72"/>
-      <c r="G246" s="72"/>
-      <c r="H246" s="72"/>
-      <c r="I246" s="72"/>
-      <c r="J246" s="72"/>
-      <c r="K246" s="72"/>
-      <c r="L246" s="72"/>
-      <c r="M246" s="73"/>
+      <c r="A246" s="93"/>
+      <c r="B246" s="94"/>
+      <c r="C246" s="94"/>
+      <c r="D246" s="94"/>
+      <c r="E246" s="94"/>
+      <c r="F246" s="94"/>
+      <c r="G246" s="94"/>
+      <c r="H246" s="94"/>
+      <c r="I246" s="94"/>
+      <c r="J246" s="94"/>
+      <c r="K246" s="94"/>
+      <c r="L246" s="94"/>
+      <c r="M246" s="95"/>
     </row>
     <row r="247" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="74"/>
-      <c r="B247" s="75"/>
-      <c r="C247" s="75"/>
-      <c r="D247" s="75"/>
-      <c r="E247" s="75"/>
-      <c r="F247" s="75"/>
-      <c r="G247" s="75"/>
-      <c r="H247" s="75"/>
-      <c r="I247" s="75"/>
-      <c r="J247" s="75"/>
-      <c r="K247" s="75"/>
-      <c r="L247" s="75"/>
-      <c r="M247" s="76"/>
+      <c r="A247" s="96"/>
+      <c r="B247" s="97"/>
+      <c r="C247" s="97"/>
+      <c r="D247" s="97"/>
+      <c r="E247" s="97"/>
+      <c r="F247" s="97"/>
+      <c r="G247" s="97"/>
+      <c r="H247" s="97"/>
+      <c r="I247" s="97"/>
+      <c r="J247" s="97"/>
+      <c r="K247" s="97"/>
+      <c r="L247" s="97"/>
+      <c r="M247" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="A243:M243"/>
+    <mergeCell ref="A246:M247"/>
+    <mergeCell ref="A220:M220"/>
+    <mergeCell ref="A223:M224"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="A197:M197"/>
+    <mergeCell ref="A200:M201"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="A178:M179"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="A155:M156"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="A152:M152"/>
+    <mergeCell ref="B93:M93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A101:M101"/>
+    <mergeCell ref="A102:M103"/>
+    <mergeCell ref="A132:M132"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:M20"/>
+    <mergeCell ref="A21:M22"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:M44"/>
+    <mergeCell ref="A45:M46"/>
+    <mergeCell ref="B50:M50"/>
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B54:M54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B71:M71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="J72:M72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="A84:M85"/>
@@ -23239,94 +23324,12 @@
     <mergeCell ref="J106:M106"/>
     <mergeCell ref="A107:B107"/>
     <mergeCell ref="E107:F107"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="B70:M70"/>
-    <mergeCell ref="B71:M71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="A45:M46"/>
-    <mergeCell ref="B50:M50"/>
-    <mergeCell ref="B51:M51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B54:M54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A43:M44"/>
     <mergeCell ref="B89:M89"/>
     <mergeCell ref="B90:M90"/>
     <mergeCell ref="B91:H91"/>
     <mergeCell ref="J91:M91"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="E92:F92"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:M20"/>
-    <mergeCell ref="A21:M22"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="A152:M152"/>
-    <mergeCell ref="B93:M93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A101:M101"/>
-    <mergeCell ref="A102:M103"/>
-    <mergeCell ref="A132:M132"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="A178:M179"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="A155:M156"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="A243:M243"/>
-    <mergeCell ref="A246:M247"/>
-    <mergeCell ref="A220:M220"/>
-    <mergeCell ref="A223:M224"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="A197:M197"/>
-    <mergeCell ref="A200:M201"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="D209:E209"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
